--- a/time-records/Ager_Clemens_csab8299.xlsx
+++ b/time-records/Ager_Clemens_csab8299.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cle/Code/Info/Software Engineering/Project/worktree/time-records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FB6898-F872-DB48-9501-7361F4DF3AA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35034CF-6264-0F4C-864D-34A2C3D020EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -605,7 +605,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -633,7 +633,7 @@
       </c>
       <c r="F1" s="13">
         <f>SUM(B:B) * 24</f>
-        <v>58</v>
+        <v>58.999999999999993</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>32</v>
@@ -1039,8 +1039,18 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="B30" s="7"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="2">
+        <v>44297</v>
+      </c>
+      <c r="B30" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="7"/>

--- a/time-records/Ager_Clemens_csab8299.xlsx
+++ b/time-records/Ager_Clemens_csab8299.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cle/Code/Info/Software Engineering/Project/worktree/time-records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35034CF-6264-0F4C-864D-34A2C3D020EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C081199A-909A-594A-B882-FE4B25A2E17B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
   <si>
     <t>Datum</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Review</t>
+  </si>
+  <si>
+    <t>Proseminar</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -633,7 +636,7 @@
       </c>
       <c r="F1" s="13">
         <f>SUM(B:B) * 24</f>
-        <v>58.999999999999993</v>
+        <v>61</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>32</v>
@@ -1053,8 +1056,18 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="B31" s="7"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="2">
+        <v>44298</v>
+      </c>
+      <c r="B31" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="B32" s="7"/>

--- a/time-records/Ager_Clemens_csab8299.xlsx
+++ b/time-records/Ager_Clemens_csab8299.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cle/Code/Info/Software Engineering/Project/worktree/time-records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C081199A-909A-594A-B882-FE4B25A2E17B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3D20BD-2145-F54A-973A-85EBD00BDB8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15620" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t>Datum</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Proseminar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game editor </t>
   </si>
 </sst>
 </file>
@@ -605,10 +608,10 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -636,7 +639,7 @@
       </c>
       <c r="F1" s="13">
         <f>SUM(B:B) * 24</f>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>32</v>
@@ -1070,70 +1073,90 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="B32" s="7"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="7"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="2:4">
+      <c r="A32" s="2">
+        <v>44299</v>
+      </c>
+      <c r="B32" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
+        <v>44298</v>
+      </c>
+      <c r="B33" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="B34" s="7"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="1:4">
       <c r="B35" s="7"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="1:4">
       <c r="B36" s="7"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="1:4">
       <c r="B37" s="7"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="1:4">
       <c r="B38" s="7"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="1:4">
       <c r="B39" s="7"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="1:4">
       <c r="B40" s="7"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="1:4">
       <c r="B41" s="7"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="1:4">
       <c r="B42" s="7"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="1:4">
       <c r="B43" s="7"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="1:4">
       <c r="B44" s="7"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="1:4">
       <c r="B45" s="7"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="1:4">
       <c r="B46" s="7"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="1:4">
       <c r="B47" s="7"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="2:4">
+    <row r="48" spans="1:4">
       <c r="B48" s="7"/>
       <c r="D48" s="3"/>
     </row>

--- a/time-records/Ager_Clemens_csab8299.xlsx
+++ b/time-records/Ager_Clemens_csab8299.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cle/Code/Info/Software Engineering/Project/worktree/time-records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3D20BD-2145-F54A-973A-85EBD00BDB8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3E2636-1E49-DA40-B469-B9C173A92BFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15620" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
   <si>
     <t>Datum</t>
   </si>
@@ -608,10 +608,10 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="D36" sqref="A1:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -639,7 +639,7 @@
       </c>
       <c r="F1" s="13">
         <f>SUM(B:B) * 24</f>
-        <v>65</v>
+        <v>70.500000000000014</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>32</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B32" s="7">
         <v>8.3333333333333329E-2</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B33" s="7">
         <v>8.3333333333333329E-2</v>
@@ -1101,16 +1101,46 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="B34" s="7"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="2">
+        <v>44301</v>
+      </c>
+      <c r="B34" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="B35" s="7"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="2">
+        <v>44305</v>
+      </c>
+      <c r="B35" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="B36" s="7"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="2">
+        <v>44306</v>
+      </c>
+      <c r="B36" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="B37" s="7"/>

--- a/time-records/Ager_Clemens_csab8299.xlsx
+++ b/time-records/Ager_Clemens_csab8299.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cle/Code/Info/Software Engineering/Project/worktree/time-records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3E2636-1E49-DA40-B469-B9C173A92BFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AAD62C-62AB-D442-A358-9C3E9896A921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15620" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
   <si>
     <t>Datum</t>
   </si>
@@ -611,7 +611,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D36" sqref="A1:D36"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -639,7 +639,7 @@
       </c>
       <c r="F1" s="13">
         <f>SUM(B:B) * 24</f>
-        <v>70.500000000000014</v>
+        <v>72.500000000000014</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>32</v>
@@ -1143,8 +1143,18 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="B37" s="7"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="2">
+        <v>44307</v>
+      </c>
+      <c r="B37" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
       <c r="B38" s="7"/>

--- a/time-records/Ager_Clemens_csab8299.xlsx
+++ b/time-records/Ager_Clemens_csab8299.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cle/Code/Info/Software Engineering/Project/worktree/time-records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AAD62C-62AB-D442-A358-9C3E9896A921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A34DDE-C8D5-5F4F-AD97-4C7B7DAD34CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15620" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="39">
   <si>
     <t>Datum</t>
   </si>
@@ -611,7 +611,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -639,7 +639,7 @@
       </c>
       <c r="F1" s="13">
         <f>SUM(B:B) * 24</f>
-        <v>72.500000000000014</v>
+        <v>75.500000000000014</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>32</v>
@@ -1157,12 +1157,32 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="B38" s="7"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="2">
+        <v>44309</v>
+      </c>
+      <c r="B38" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="B39" s="7"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="2">
+        <v>44311</v>
+      </c>
+      <c r="B39" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
       <c r="B40" s="7"/>
